--- a/OUTPUT-FILES/MANUAL-TABLES/Manual-tables-log.xlsx
+++ b/OUTPUT-FILES/MANUAL-TABLES/Manual-tables-log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dherzberg/Desktop/R/SPM2-R/OUTPUT-FILES/MANUAL-TABLES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2EBD84-5AAD-7C48-B039-6B92237F033D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A401DB-721F-6F46-9D03-05425FF7A09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DBF275E7-CA54-E844-97E3-C9B142393EF4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Table number</t>
   </si>
@@ -114,6 +114,42 @@
   </si>
   <si>
     <t>t410-Adult-descXscale</t>
+  </si>
+  <si>
+    <t>School Environ cutoff scores</t>
+  </si>
+  <si>
+    <t>t411-school-environ-driving-cutoffs</t>
+  </si>
+  <si>
+    <t>Clin demos IT 430</t>
+  </si>
+  <si>
+    <t>Clin demos preschool 25</t>
+  </si>
+  <si>
+    <t>Clin demos child 512</t>
+  </si>
+  <si>
+    <t>Clin demos teen 1221</t>
+  </si>
+  <si>
+    <t>Clin demos adult</t>
+  </si>
+  <si>
+    <t>Clin disorders types</t>
+  </si>
+  <si>
+    <t>Digital-Paper equiv</t>
+  </si>
+  <si>
+    <t>Spanish-English equiv</t>
+  </si>
+  <si>
+    <t>pending prep of digital/paper sample</t>
+  </si>
+  <si>
+    <t>pending prep of Sp/Eng sample</t>
   </si>
 </sst>
 </file>
@@ -506,18 +542,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6EB19C-911A-CA44-9662-6667BDEDC6EA}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -678,46 +714,106 @@
       <c r="A12" s="3">
         <v>4.1100000000000003</v>
       </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4.12</v>
       </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>4.13</v>
       </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>4.1399999999999997</v>
       </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>4.16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>4.17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>4.1900000000000004</v>
       </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/OUTPUT-FILES/MANUAL-TABLES/Manual-tables-log.xlsx
+++ b/OUTPUT-FILES/MANUAL-TABLES/Manual-tables-log.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dherzberg/Desktop/R/SPM2-R/OUTPUT-FILES/MANUAL-TABLES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A401DB-721F-6F46-9D03-05425FF7A09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590FBBA7-9EB4-6D4C-946B-2D3DFFFEF3A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DBF275E7-CA54-E844-97E3-C9B142393EF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>Table number</t>
   </si>
@@ -150,6 +150,56 @@
   </si>
   <si>
     <t>pending prep of Sp/Eng sample</t>
+  </si>
+  <si>
+    <t>5.01</t>
+  </si>
+  <si>
+    <t>IT alpha SEM CV test-retest</t>
+  </si>
+  <si>
+    <t>t501-IT-49-alpha-TRT
+t501-IT-1030-alpha-TRT
+t501-IT-Caregiver-alpha-TRT</t>
+  </si>
+  <si>
+    <t>pending prep of test-retest sample</t>
+  </si>
+  <si>
+    <t>5.02</t>
+  </si>
+  <si>
+    <t>5.03</t>
+  </si>
+  <si>
+    <t>5.04</t>
+  </si>
+  <si>
+    <t>Preschool alpha SEM CV test-retest</t>
+  </si>
+  <si>
+    <t>Child alpha SEM CV test-retest</t>
+  </si>
+  <si>
+    <t>t504-Teen-alpha-TRT</t>
+  </si>
+  <si>
+    <t>Teen alpha SEM CV test-retest</t>
+  </si>
+  <si>
+    <t>t502-Preschool-alpha-TRT</t>
+  </si>
+  <si>
+    <t>t503-Child-alpha-TRT</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>Adut alpha SEM CV test-retest</t>
+  </si>
+  <si>
+    <t>t505-Teen-alpha-TRT</t>
   </si>
 </sst>
 </file>
@@ -206,18 +256,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -233,13 +311,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{385CED2F-77F8-C24D-9DE4-BF79C465441E}" name="Table1" displayName="Table1" ref="A1:D21" totalsRowShown="0">
-  <autoFilter ref="A1:D21" xr:uid="{BD82D675-2AE9-C542-B9D0-8F3A2A2430AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{385CED2F-77F8-C24D-9DE4-BF79C465441E}" name="Table1" displayName="Table1" ref="A1:D25" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D25" xr:uid="{BD82D675-2AE9-C542-B9D0-8F3A2A2430AD}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{13712447-2B5E-1043-BFEA-17494CB23E58}" name="Table number" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{0A16793C-09EA-1F42-9741-B9A3A5767FEE}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{A4BD91F0-2285-3142-BE12-D084D1DD6B58}" name="Output file"/>
-    <tableColumn id="4" xr3:uid="{AC9C1F54-11F0-DE42-BD27-E29A3F70915F}" name="Completion Status"/>
+    <tableColumn id="1" xr3:uid="{13712447-2B5E-1043-BFEA-17494CB23E58}" name="Table number" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{0A16793C-09EA-1F42-9741-B9A3A5767FEE}" name="Description" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A4BD91F0-2285-3142-BE12-D084D1DD6B58}" name="Output file" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{AC9C1F54-11F0-DE42-BD27-E29A3F70915F}" name="Completion Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -542,278 +620,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6EB19C-911A-CA44-9662-6667BDEDC6EA}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="156" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>4.2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>4.3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>4.5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>4.7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>4.8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>4.1100000000000003</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>4.12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>4.13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>4.1399999999999997</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>4.1500000000000004</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>4.16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>4.17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <v>4.18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>4.1900000000000004</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="2"/>
+    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
